--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ReactJs\JS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ReactJs\tiktok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88BEDE4-792F-4CE3-964D-0CF755DAAD5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB14785-4C56-4089-8A86-BC929DCDD754}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="28800" windowHeight="11610" activeTab="1" xr2:uid="{F52B70D0-E6FF-4AE3-AC02-831A36674E1F}"/>
+    <workbookView xWindow="0" yWindow="5400" windowWidth="28800" windowHeight="11610" activeTab="4" xr2:uid="{F52B70D0-E6FF-4AE3-AC02-831A36674E1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="3" r:id="rId1"/>
     <sheet name="SSR và CSR" sheetId="5" r:id="rId2"/>
     <sheet name="JS-ES6" sheetId="1" r:id="rId3"/>
-    <sheet name="ReactJS" sheetId="2" r:id="rId4"/>
-    <sheet name="Props" sheetId="4" r:id="rId5"/>
+    <sheet name="DOM" sheetId="2" r:id="rId4"/>
+    <sheet name="ReactJS" sheetId="6" r:id="rId5"/>
+    <sheet name="Props" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="185">
   <si>
     <t>Enhance oject literial</t>
   </si>
@@ -142,45 +143,6 @@
     <t>Chú ý : 1 module chỉ export được 1 biến default (còn có thể export nhiều giá trị khác nữa)</t>
   </si>
   <si>
-    <t>Hàm:</t>
-  </si>
-  <si>
-    <t>Tham s?: giá tr? truy?n vào khi g?i d?n func, dùng d? tính x? lý d? li?u</t>
-  </si>
-  <si>
-    <t>Truy?n tham s?:</t>
-  </si>
-  <si>
-    <t>Argument?</t>
-  </si>
-  <si>
-    <t>+Return trong hàm:</t>
-  </si>
-  <si>
-    <t>m?c d?nh tr? v? undefined</t>
-  </si>
-  <si>
-    <t>+Khai báo:</t>
-  </si>
-  <si>
-    <t>+Các lo?i function:</t>
-  </si>
-  <si>
-    <t>Declare Func:func showMess(){}</t>
-  </si>
-  <si>
-    <t>Express func:var x = func showMess(){} có toán t? gán</t>
-  </si>
-  <si>
-    <t>Arrow func: () =&gt; {}</t>
-  </si>
-  <si>
-    <t>Polyfill:</t>
-  </si>
-  <si>
-    <t>Object:</t>
-  </si>
-  <si>
     <t>document.getelement()</t>
   </si>
   <si>
@@ -371,6 +333,258 @@
   </si>
   <si>
     <t>công cụ giúp chúng ta tách mã HTML thành các phần nhỏ hơn mà chúng ta có thể sử dụng lại trên nhiều tập tin HTML</t>
+  </si>
+  <si>
+    <t>Mảng</t>
+  </si>
+  <si>
+    <t>Mảng là 1 loại đối tượng toàn cục  sử dụng để lưu trữ dữ liệu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nó bao gồm 1 tập hợp hoặc danh sách có thứ tự chưa không hoặc nhiều kiểu dữ liệu </t>
+  </si>
+  <si>
+    <t>Nó sử dụng index được đánh số bắt đầu từ 0 để truy cập vào các phần tử</t>
+  </si>
+  <si>
+    <t>Cách dùng mảng:</t>
+  </si>
+  <si>
+    <t>Tạo mảng: sử dụng kí tự []</t>
+  </si>
+  <si>
+    <t>Truy cập phần tử trong mảng:</t>
+  </si>
+  <si>
+    <t>tên_mảng[0] sẽ truy cập vào phần tử đầu tiên , nếu không tồn tại trả về undefined</t>
+  </si>
+  <si>
+    <t>Các phương thức:</t>
+  </si>
+  <si>
+    <t>push()</t>
+  </si>
+  <si>
+    <t>unshift()</t>
+  </si>
+  <si>
+    <t>thêm phần tử vào đầu mảng</t>
+  </si>
+  <si>
+    <t>thêm 1 phần tử vào cuối mảng trả về độ dài mới của mảng</t>
+  </si>
+  <si>
+    <t>pop()</t>
+  </si>
+  <si>
+    <t>xóa phần tử cuối mảng</t>
+  </si>
+  <si>
+    <t>shift()</t>
+  </si>
+  <si>
+    <t>xóa phần tử đầu tiên của mảng</t>
+  </si>
+  <si>
+    <t>splice(vị trí index cần xóa,số phần tử muốn xóa,...)</t>
+  </si>
+  <si>
+    <t>xóa 1 phần tử cụ thể khỏi mang từ tham số thứ 3 trở đi sẽ thêm vào mảng</t>
+  </si>
+  <si>
+    <t>concat()</t>
+  </si>
+  <si>
+    <t>mangr1.concat(mang2)</t>
+  </si>
+  <si>
+    <t>nối các mảng với nhau , mảng 2 sẽ gộp vào với mảng 1</t>
+  </si>
+  <si>
+    <t>slice(index_start,index_end)</t>
+  </si>
+  <si>
+    <t>cắt mảng nó sẽ cắt từ chỉ số index trở đi chỉ giữ lại phần tử trước từ chỉ số index đó đến index_end. Index_end mà k có thì coi như đến hết mảng</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Hàm là 1 khối mã để làm 1 việc cụ thể gì đó</t>
+  </si>
+  <si>
+    <t>Các tính chất của hàm</t>
+  </si>
+  <si>
+    <t>Không thực thi khi định nghĩa</t>
+  </si>
+  <si>
+    <t>Thực thi khi gọi</t>
+  </si>
+  <si>
+    <t>Có thể nhận tham số</t>
+  </si>
+  <si>
+    <t>Có thể trả về 1 giá trị</t>
+  </si>
+  <si>
+    <t>Quy tắc đặt tên hàm</t>
+  </si>
+  <si>
+    <t>a-zA-Z_0-9$</t>
+  </si>
+  <si>
+    <t>Số không được lên đầu tiên</t>
+  </si>
+  <si>
+    <t>Argruments là 1 đối tượng giống như mảng trong JS, nó chứa các tham số đã truyền vào hàm trong JS</t>
+  </si>
+  <si>
+    <t>chỉ dùng bên trong hàm và k sử dụng bởi arrow function</t>
+  </si>
+  <si>
+    <t>Hàm không có return sẽ trả về undefined , sau khi return các dòng sau đó sẽ k chạy nữa</t>
+  </si>
+  <si>
+    <t>Khi định nghĩa 2 function cùng tên cái nào định nghĩa sau khi gọi sẽ chạy cái định nghĩa sau</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Trong JS có các kiểu đl: Number,string boolean,undefined,null , và Object</t>
+  </si>
+  <si>
+    <t>Khai báo name_object = {key: 'value',….}</t>
+  </si>
+  <si>
+    <t>Object constructor như bản thiết kế từ đó dễ dàng dựng lên các object theo bản thiết kế đó</t>
+  </si>
+  <si>
+    <t>Array method</t>
+  </si>
+  <si>
+    <t>lặp qua từng phần tử trong mảng với tham số truyền vào 1 function</t>
+  </si>
+  <si>
+    <t>map(function, index)</t>
+  </si>
+  <si>
+    <t>reduce(function,)</t>
+  </si>
+  <si>
+    <t>duyệt qua các phần tử trong mảng</t>
+  </si>
+  <si>
+    <t>HTML DOM</t>
+  </si>
+  <si>
+    <t>ReactJS là gì?</t>
+  </si>
+  <si>
+    <t>là 1 thư  viện Javascript dùng để xây dựng giao diện người dùng - không phải là framework</t>
+  </si>
+  <si>
+    <t>nó hỗ trợ xây dựng các thành phần UI có tính tương tác cao có thể sử dụng lại được</t>
+  </si>
+  <si>
+    <t>được xây dựng quanh các components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nó hoạt động cả client và server </t>
+  </si>
+  <si>
+    <t>Dùng để xây dựng giao diện người dùng</t>
+  </si>
+  <si>
+    <t>Gồm những thành phần gì ?</t>
+  </si>
+  <si>
+    <t>Cách dùng từng bộ phần?</t>
+  </si>
+  <si>
+    <t>React giải quyết được việc gì?</t>
+  </si>
+  <si>
+    <t>Hiệu suất cao có thể tái sử dụng</t>
+  </si>
+  <si>
+    <t>SPA</t>
+  </si>
+  <si>
+    <t>MPA</t>
+  </si>
+  <si>
+    <t>dữ liệu sẽ dk gen từ html,css,js thay đổi nhỏ cũng load lại trang</t>
+  </si>
+  <si>
+    <t>tăng tính tương tác người dùng</t>
+  </si>
+  <si>
+    <t>Tìm kiếm tính toán xử lí nhanh hơn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phát triển back và front song song </t>
+  </si>
+  <si>
+    <t>Ảnh hưởng đến SEO</t>
+  </si>
+  <si>
+    <t>Load lần 1 nặng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có thể kết hợp SPA và MPA với SSR CSR </t>
+  </si>
+  <si>
+    <t>Khái niệm JSX</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Javascript XML hỗ trợ viết xml, html  trong javascript</t>
+  </si>
+  <si>
+    <t>JSX không phải là html cần có JS và Babel để dùng JSX</t>
+  </si>
+  <si>
+    <t>Quy tắc đặt tên camelCase :class -&gt; className ,…</t>
+  </si>
+  <si>
+    <t>Nếu thẻ rỗng có thể đóng thẻ ngay bằng /&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Render element </t>
+  </si>
+  <si>
+    <t>để render 1 element vào DOM gốc thì truyền vào ReactDOM().render()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hầu hết chỉ gọi render 1 lần duy nhất </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Component </t>
+  </si>
+  <si>
+    <t>cho phép chia UI thành các phần độc lập có thể tái sử dụng và tách biệt nhau</t>
+  </si>
+  <si>
+    <t>components là các hàm JS, nhận vào đầu vào (props) và trả về các React elements hiển thị trên màn hình</t>
+  </si>
+  <si>
+    <t>có 2 loại là Function component và Class component</t>
+  </si>
+  <si>
+    <t>để render 1 component ta sử dụng thẻ &lt;Tên_component /&gt;</t>
+  </si>
+  <si>
+    <t>Tạo components</t>
+  </si>
+  <si>
+    <t>là đối số của các function</t>
+  </si>
+  <si>
+    <t>Props</t>
+  </si>
+  <si>
+    <t>viết tắt của properties</t>
   </si>
 </sst>
 </file>
@@ -418,14 +632,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -607,7 +821,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -623,7 +837,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -638,8 +851,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -668,8 +883,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2066925</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>84888</xdr:rowOff>
     </xdr:to>
@@ -844,8 +1059,8 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>102181</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>226006</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>105063</xdr:rowOff>
     </xdr:to>
@@ -1276,7 +1491,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,8 +1639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347E0A37-59EE-4ED6-9E17-493E5F170C50}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1434,667 +1649,667 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="19"/>
-      <c r="Q2" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="26"/>
+      <c r="A2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="18"/>
+      <c r="Q2" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="25"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="19"/>
+      <c r="A3" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>1</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="O4" s="12"/>
+      <c r="B4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+      <c r="A5" s="20">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="19"/>
+      <c r="B5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="18"/>
       <c r="N5">
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="Q5" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+      <c r="A6" s="20">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="19"/>
+      <c r="B6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="18"/>
       <c r="N6">
         <v>2</v>
       </c>
       <c r="O6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="18"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="18"/>
+      <c r="O9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
+        <v>1</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="18"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
+        <v>2</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="18"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
+        <v>1</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="18"/>
+    </row>
+    <row r="14" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="20">
+        <v>2</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="18"/>
+      <c r="Q14" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
+        <v>3</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="18"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="18"/>
+      <c r="N16" t="s">
+        <v>94</v>
+      </c>
+      <c r="R16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="18"/>
+      <c r="R17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="18"/>
+      <c r="N18" t="s">
+        <v>95</v>
+      </c>
+      <c r="R18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="18"/>
+      <c r="R19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="18"/>
+      <c r="R20" t="s">
         <v>100</v>
       </c>
-      <c r="Q6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="20">
+        <v>2</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="18"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="20">
+        <v>3</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="18"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="20">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="19"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+      <c r="B23" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="18"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="20">
         <v>5</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="O8" s="12"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="19"/>
-      <c r="O9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+      <c r="B24" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="18"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="18"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="20">
         <v>1</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B26" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="18"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="20">
+        <v>2</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="19"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="18"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="20">
+        <v>3</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="18"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="18"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="20">
+        <v>1</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="18"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="20">
         <v>2</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="O11" s="12"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="19"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
-        <v>1</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="19"/>
-    </row>
-    <row r="14" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="21">
-        <v>2</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="19"/>
-      <c r="Q14" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
-        <v>3</v>
-      </c>
-      <c r="B15" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="19"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="19"/>
-      <c r="N16" t="s">
-        <v>107</v>
-      </c>
-      <c r="R16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A17" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="19"/>
-      <c r="R17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="19"/>
-      <c r="N18" t="s">
-        <v>108</v>
-      </c>
-      <c r="R18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="19"/>
-      <c r="R19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="21">
-        <v>1</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="19"/>
-      <c r="R20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="21">
-        <v>2</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="19"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="21">
-        <v>3</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="19"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="21">
-        <v>4</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="19"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
-        <v>5</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="19"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="19"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="21">
-        <v>1</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="19"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="21">
-        <v>2</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="19"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="21">
-        <v>3</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="19"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="19"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="21">
-        <v>1</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="19"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="21">
-        <v>2</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="19"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="18"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="19"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="18"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="24"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2104,11 +2319,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2185E8-7F78-4A7E-B614-1886F07EB29C}">
-  <dimension ref="A2:P67"/>
+  <dimension ref="A2:P94"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="43.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2277,7 +2495,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,76 +2508,226 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A54" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" t="e">
-        <f>+Khi function d?t trùng tên s? function dinh nghia sau s? dè lên function d?nh nghia tru?c dó</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>49</v>
-      </c>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>107</v>
+      </c>
+      <c r="F60" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>110</v>
+      </c>
+      <c r="D62" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>118</v>
+      </c>
+      <c r="D64" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>114</v>
+      </c>
+      <c r="D65" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>116</v>
+      </c>
+      <c r="D66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D67" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>123</v>
+      </c>
+      <c r="D69" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A71" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="D71" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>133</v>
+      </c>
+      <c r="G78" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A84" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B84" s="27"/>
+      <c r="D84" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>145</v>
+      </c>
+      <c r="D90" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>146</v>
+      </c>
+      <c r="D91" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B94" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2372,61 +2740,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91EA196-23E6-4F65-B3E8-BE235851700D}">
   <dimension ref="A2:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C28" s="10"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2437,11 +2805,229 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58449254-F20A-40EB-816D-1CE919B5BD7B}">
+  <dimension ref="A1:L38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" t="s">
+        <v>173</v>
+      </c>
+      <c r="G23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G25" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G26" s="28"/>
+      <c r="H26" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>176</v>
+      </c>
+      <c r="G28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>183</v>
+      </c>
+      <c r="F35" t="s">
+        <v>184</v>
+      </c>
+      <c r="G35" t="s">
+        <v>50</v>
+      </c>
+      <c r="L35" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F0FBEE-5633-4D6E-B6E4-7A2A92C8C983}">
-  <dimension ref="A2:D10"/>
+  <dimension ref="A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2449,46 +3035,9 @@
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ReactJs\tiktok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App\tiktok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB14785-4C56-4089-8A86-BC929DCDD754}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424B4BD7-73C5-4897-A1D6-38F7871373ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5400" windowWidth="28800" windowHeight="11610" activeTab="4" xr2:uid="{F52B70D0-E6FF-4AE3-AC02-831A36674E1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{F52B70D0-E6FF-4AE3-AC02-831A36674E1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="243">
   <si>
     <t>Enhance oject literial</t>
   </si>
@@ -578,13 +578,187 @@
     <t>Tạo components</t>
   </si>
   <si>
-    <t>là đối số của các function</t>
-  </si>
-  <si>
     <t>Props</t>
   </si>
   <si>
     <t>viết tắt của properties</t>
+  </si>
+  <si>
+    <t>là object truyền Vào đối số của component</t>
+  </si>
+  <si>
+    <t>cách truyền props thì thực hiện như thêm 1 attribute của HTML</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Là một object Dùng để lưu trữ dữ liệu trong component, khi state  thay đổi thì component sẽ re-render lại</t>
+  </si>
+  <si>
+    <t>State chỉ tồn tại trong component chứa nó</t>
+  </si>
+  <si>
+    <t>State có thể thay đổi được giá trị bất kì lúc nào</t>
+  </si>
+  <si>
+    <t>State được dùng để phản hồi lại các yêu cầu từ người dùng hoặc lưu trữ dữ liệu nào trong components</t>
+  </si>
+  <si>
+    <t>Thao tác với state</t>
+  </si>
+  <si>
+    <t>Thao tác với state trong class component</t>
+  </si>
+  <si>
+    <t>this.state = ''</t>
+  </si>
+  <si>
+    <t>this.setState</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cho phép chúng ta giao tiếp giữa các components với nhau bằng cách truyền tham số qua lại giữa các components.Component con chỉ có thể đọc k thể sửa props </t>
+  </si>
+  <si>
+    <t>&gt; người ta sử dungjh Redux để truyền dữ liệu</t>
+  </si>
+  <si>
+    <t>Props validation</t>
+  </si>
+  <si>
+    <t>là cách kiểm soát các props , kiểm tra dữ liệu đầu vào của PROPS trước khi component được render</t>
+  </si>
+  <si>
+    <t>Cách để kiểm tra</t>
+  </si>
+  <si>
+    <t>component có thuộc tính tên là propTypes</t>
+  </si>
+  <si>
+    <t>cập nhật lại giá trị State</t>
+  </si>
+  <si>
+    <t>Bind()</t>
+  </si>
+  <si>
+    <t>cho phép chúng ta set lại giá trị của biến this</t>
+  </si>
+  <si>
+    <t>nằm trong function prototype nên chỉ có function mới gọi được</t>
+  </si>
+  <si>
+    <t>Call()</t>
+  </si>
+  <si>
+    <t>Apply()</t>
+  </si>
+  <si>
+    <t>cả call và apply đều có chức năng là xác định tham số ,xác định this và truyền vào tham số còn lại'</t>
+  </si>
+  <si>
+    <t>truyền lần lượt các tham số</t>
+  </si>
+  <si>
+    <t>Truyền vào 1 array</t>
+  </si>
+  <si>
+    <t>Cả 2 đều sử dụng để set this cho hàm callback</t>
+  </si>
+  <si>
+    <t>Sử dụng để mở rộng chức năng của hàm mà không cần sửa trực tiếp hàm</t>
+  </si>
+  <si>
+    <t>Sử dụng để mượn hàm</t>
+  </si>
+  <si>
+    <t>Components Life cycle</t>
+  </si>
+  <si>
+    <t>Là 1 chu kỳ từ khởi tạo đến kết thúc của 1 component</t>
+  </si>
+  <si>
+    <t>Cho phép chúng ta tham gia vào các giai đoạn của 1 component life cycle</t>
+  </si>
+  <si>
+    <t>Cấu trúc</t>
+  </si>
+  <si>
+    <t>báo gồm  giai đoạn chính</t>
+  </si>
+  <si>
+    <t>initalization</t>
+  </si>
+  <si>
+    <t>mounting</t>
+  </si>
+  <si>
+    <t>updating</t>
+  </si>
+  <si>
+    <t>unmounting</t>
+  </si>
+  <si>
+    <t>là giai đoạn bắt đầu , nó sẽ khởi tạo props và state thường được thực hiện bên trong constructor</t>
+  </si>
+  <si>
+    <t>là giai đoạn ngày sau khi component được init hoàn thành, giúp chuyển DOM ảo thành Dom thật và hiển thị trên HTML</t>
+  </si>
+  <si>
+    <t>componentWillMount()</t>
+  </si>
+  <si>
+    <t>componentDidMount()</t>
+  </si>
+  <si>
+    <t>thực hiện trước khi component được render , sau khi thực hiện xong component mới được mount</t>
+  </si>
+  <si>
+    <t>không nên thực hiện set props state, hay call API ở đây do k đủ thời gian hoàn thành</t>
+  </si>
+  <si>
+    <t>gọi khi component được render sau khi willmount thành công</t>
+  </si>
+  <si>
+    <t>có thể gọi API sửa props state ở đây</t>
+  </si>
+  <si>
+    <t>Component sẽ được render lần đầu tiên ở đây. Nó có 2 phương thức</t>
+  </si>
+  <si>
+    <t>Trong giai đoạn này props và state sẽ được update theo yêu cầu từ sự kiện người dùng</t>
+  </si>
+  <si>
+    <t>sẽ render lại component . Trong giai đoạn này sẽ có 3 phương thức chính</t>
+  </si>
+  <si>
+    <t>shouldComponentUpdate()</t>
+  </si>
+  <si>
+    <t>nó nhận vào 2 tham số là nextProps và nextState</t>
+  </si>
+  <si>
+    <t>componentWillUpdate()</t>
+  </si>
+  <si>
+    <t>Phương thức này được gọi trước khi re-render component có thể thực hiện update state props tại đây</t>
+  </si>
+  <si>
+    <t>ComponentDidUpdate()</t>
+  </si>
+  <si>
+    <t>gọi khi component đã render xong</t>
+  </si>
+  <si>
+    <t>componentWillUnMount()</t>
+  </si>
+  <si>
+    <t>khi hoàn thành tác vụ bên trên sẽ tiến hành unmount khỏi DOM</t>
+  </si>
+  <si>
+    <t>kết thúc vòng đời của 1 component</t>
+  </si>
+  <si>
+    <t>nó sẽ xác định việc component có re-render lại hay không . Mặc định trả về true ta có thể thay đổi true</t>
   </si>
 </sst>
 </file>
@@ -646,7 +820,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -662,6 +836,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,7 +1007,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -855,6 +1041,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2806,10 +2995,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58449254-F20A-40EB-816D-1CE919B5BD7B}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2898,10 +3087,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="29" t="s">
         <v>168</v>
       </c>
       <c r="G17" t="s">
@@ -2924,10 +3113,10 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="29" t="s">
         <v>173</v>
       </c>
       <c r="G23" t="s">
@@ -2960,7 +3149,7 @@
       <c r="K26" s="28"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E28" t="s">
+      <c r="E28" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G28" t="s">
@@ -2983,37 +3172,287 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F32" t="s">
+      <c r="F32" s="30" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="35" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E35" t="s">
+      <c r="E35" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="F35" s="30" t="s">
         <v>183</v>
-      </c>
-      <c r="F35" t="s">
-        <v>184</v>
       </c>
       <c r="G35" t="s">
         <v>50</v>
       </c>
       <c r="L35" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="H36" t="s">
+      <c r="G36" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="H37" t="s">
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="H38" t="s">
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E42" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="G42" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F46" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="G46" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>194</v>
+      </c>
+      <c r="I48" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G49" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="I49" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G51" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="I51" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G53" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="I53" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="I54" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="I55" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="I56" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="57" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>197</v>
+      </c>
+      <c r="G58" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F59" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="G59" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E61" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="G61" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="62" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="63" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F63" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="G63" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="64" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G64" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="I64" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="66" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G66" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="I66" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="67" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I67" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="68" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I68" t="s">
+        <v>224</v>
+      </c>
+      <c r="L68" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="69" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="L69" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="70" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I70" t="s">
+        <v>225</v>
+      </c>
+      <c r="L70" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="71" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="L71" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="72" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G72" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="I72" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="73" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I73" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="74" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I74" t="s">
+        <v>233</v>
+      </c>
+      <c r="L74" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="75" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="L75" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="76" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I76" t="s">
+        <v>235</v>
+      </c>
+      <c r="L76" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="77" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I77" t="s">
+        <v>237</v>
+      </c>
+      <c r="L77" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="78" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G78" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="I78" t="s">
+        <v>239</v>
+      </c>
+      <c r="L78" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="79" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="L79" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App\tiktok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ReactJs\tiktok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424B4BD7-73C5-4897-A1D6-38F7871373ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580364EB-36D7-4843-AC7D-BE7E7CE6330A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{F52B70D0-E6FF-4AE3-AC02-831A36674E1F}"/>
   </bookViews>
@@ -18,7 +18,8 @@
     <sheet name="JS-ES6" sheetId="1" r:id="rId3"/>
     <sheet name="DOM" sheetId="2" r:id="rId4"/>
     <sheet name="ReactJS" sheetId="6" r:id="rId5"/>
-    <sheet name="Props" sheetId="4" r:id="rId6"/>
+    <sheet name="Hooks" sheetId="7" r:id="rId6"/>
+    <sheet name="Props" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="270">
   <si>
     <t>Enhance oject literial</t>
   </si>
@@ -759,6 +760,87 @@
   </si>
   <si>
     <t>nó sẽ xác định việc component có re-render lại hay không . Mặc định trả về true ta có thể thay đổi true</t>
+  </si>
+  <si>
+    <t>List và key</t>
+  </si>
+  <si>
+    <t>list bao gồm ….</t>
+  </si>
+  <si>
+    <t>để kiểm soát được list thì có thuộc tính key để định danh</t>
+  </si>
+  <si>
+    <t>Keys là duy nhất , không trùng lặp trong các lists</t>
+  </si>
+  <si>
+    <t>Tránh sử dụng index làm key vì khi sắp xếp index thay đổi -&gt; keys thay đổi -&gt; giảm hiệu suất</t>
+  </si>
+  <si>
+    <t>Sử dụng index là keey trong khi:</t>
+  </si>
+  <si>
+    <t>Nếu list tĩnh không thay đổi</t>
+  </si>
+  <si>
+    <t>List không bao giờ được sắp xếp lại</t>
+  </si>
+  <si>
+    <t>List k được lọc</t>
+  </si>
+  <si>
+    <t>Không có id trong mục list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class component </t>
+  </si>
+  <si>
+    <t>Function component</t>
+  </si>
+  <si>
+    <t>dùng để làm ra các ui component</t>
+  </si>
+  <si>
+    <t>Hooks sinh ra để trợ giúp cho vệc làm việc với function component</t>
+  </si>
+  <si>
+    <t>Hooks là gì</t>
+  </si>
+  <si>
+    <t>Hooks giải quyết việc gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hooks gồm những thành phần nào </t>
+  </si>
+  <si>
+    <t>Cách dùng từng bộ phận</t>
+  </si>
+  <si>
+    <t>Hooks là gắn vào , bạn có thể sử dụng state và các chức năng khác của một class component trong 1 function component</t>
+  </si>
+  <si>
+    <t>Nó đem lại hiệu suất làm việc cao , tái sử dụng code</t>
+  </si>
+  <si>
+    <t>Các thành phần được trình bày khoa học</t>
+  </si>
+  <si>
+    <t>Sử dụng linh hoạt bằng khác import khai báo từ  thư viện React</t>
+  </si>
+  <si>
+    <t>giúp cho function component có thể thao tác với state , props, life cycle có thể thay thế class com</t>
+  </si>
+  <si>
+    <t>Kỹ thuật lifting State up</t>
+  </si>
+  <si>
+    <t>kỹ thuật này có nghĩa là cách mà có thể chia sẻ được dữ liệu cho các component khác nhau . Khi compinent con thay đổi dữ liệu thì component cha sẽ được biết</t>
+  </si>
+  <si>
+    <t>Chỉ có thể sử dụng khi bạn truyền từ cha sang con và ngược lại.</t>
+  </si>
+  <si>
+    <t>Trường hợp muốn chia sẽ state sang component khác thì chúng ta sử dụng Redux</t>
   </si>
 </sst>
 </file>
@@ -1829,7 +1911,7 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2995,10 +3077,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58449254-F20A-40EB-816D-1CE919B5BD7B}">
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3455,6 +3537,72 @@
         <v>241</v>
       </c>
     </row>
+    <row r="82" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E82" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="G82" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="83" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G83" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="84" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G84" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="85" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G85" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="86" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G86" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="87" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H87" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="88" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H88" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="89" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H89" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="90" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H90" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="92" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E92" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="G92" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="93" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G93" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="94" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G94" t="s">
+        <v>269</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3462,6 +3610,80 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA05AB2-A29E-48D9-A9B5-14FF7828714F}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F0FBEE-5633-4D6E-B6E4-7A2A92C8C983}">
   <dimension ref="A10"/>
   <sheetViews>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App\tiktok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424B4BD7-73C5-4897-A1D6-38F7871373ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBFD467-9C45-4D60-BAF2-1F57A99350A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{F52B70D0-E6FF-4AE3-AC02-831A36674E1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{F52B70D0-E6FF-4AE3-AC02-831A36674E1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="JS-ES6" sheetId="1" r:id="rId3"/>
     <sheet name="DOM" sheetId="2" r:id="rId4"/>
     <sheet name="ReactJS" sheetId="6" r:id="rId5"/>
-    <sheet name="Props" sheetId="4" r:id="rId6"/>
+    <sheet name="HTTP request ,API,fetch API" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="276">
   <si>
     <t>Enhance oject literial</t>
   </si>
@@ -182,9 +183,6 @@
     <t>Phân biệt:</t>
   </si>
   <si>
-    <t>Props là cái chứa các thuộc tính cho react element</t>
-  </si>
-  <si>
     <t>Truyền thộc tính props hay gặp TH undefined. Do chưa được khởi tạo</t>
   </si>
   <si>
@@ -194,9 +192,6 @@
     <t>Co the su dung destructuring</t>
   </si>
   <si>
-    <t>DOM event :là các sự kiện click ,…</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. SSR </t>
   </si>
   <si>
@@ -759,13 +754,118 @@
   </si>
   <si>
     <t>nó sẽ xác định việc component có re-render lại hay không . Mặc định trả về true ta có thể thay đổi true</t>
+  </si>
+  <si>
+    <t>BẢNG KIỂM ĐIỂM</t>
+  </si>
+  <si>
+    <t>Hà Nội, Ngày 17 -11 -2022</t>
+  </si>
+  <si>
+    <t>Họ tên anh iu</t>
+  </si>
+  <si>
+    <t>Mạnh Lợn</t>
+  </si>
+  <si>
+    <t>Họ tên bé iu</t>
+  </si>
+  <si>
+    <t>Bé Loan</t>
+  </si>
+  <si>
+    <t>Anh làm đơn này để xin lỗi vì những gì a đã gây ra vào tối hôm qua ngày 16-11-2022 . Anh đã cáu bẩn khi em chỉ nói trêu a 1 chút</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anh đã không giữ được bình tĩnh dẫn đến cáu em và làm em buồn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anh rất xin lỗi ! Anh hứa từ sau a khum cáu bẩn và dỗi bé nữa . </t>
+  </si>
+  <si>
+    <t>Người làm đơn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anh yêu em!!!! Mong em tha thứ cho anh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hook </t>
+  </si>
+  <si>
+    <t>là các hàm cho phép mình móc vào các trạng thái của React ,và các tính năng vòng đời từ các hàm components</t>
+  </si>
+  <si>
+    <t>Hooks hoạt động k cần class , hoạt động trong function components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nó giúp chúng ta có thể sử dụng state và life cycle trong function components , thay thế được class components </t>
+  </si>
+  <si>
+    <t>useState()</t>
+  </si>
+  <si>
+    <t>useEffect()</t>
+  </si>
+  <si>
+    <t>useLayoutEffect()</t>
+  </si>
+  <si>
+    <t>useRef()</t>
+  </si>
+  <si>
+    <t>useMemo()</t>
+  </si>
+  <si>
+    <t>useCallback()</t>
+  </si>
+  <si>
+    <t>useReducer()</t>
+  </si>
+  <si>
+    <t>useContext()</t>
+  </si>
+  <si>
+    <t>Khi dung thành phần nào sẽ import thành phần đó để gọi</t>
+  </si>
+  <si>
+    <t>useDebugValue()</t>
+  </si>
+  <si>
+    <t>useImperativeHandle()</t>
+  </si>
+  <si>
+    <t>Hooks gồm 10 thành phần:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nó giúp component trở nên đơn giản dễ hiểu hơn </t>
+  </si>
+  <si>
+    <t>trạng thái của dữ liệu , khi chúng ta muốn cập nhật lại dữ liệu và component sẽ tự render lại</t>
+  </si>
+  <si>
+    <t>cách dùng:import vào function component</t>
+  </si>
+  <si>
+    <t>tất cả các hook đều là hàm</t>
+  </si>
+  <si>
+    <t>đối số là : giá trị khởi tạo initState</t>
+  </si>
+  <si>
+    <t>nó trả về 1 mảng 2 phần tử : phần tử 1 là state , phần tử 2 là 1 hàm để set lại state</t>
+  </si>
+  <si>
+    <t>ví dụ: const dulieu [state,setState] = useState[giá trị init]</t>
+  </si>
+  <si>
+    <t>component sẽ được render lại khi setState gọi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -814,6 +914,31 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1007,7 +1132,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1044,6 +1169,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1854,11 +1983,11 @@
     </row>
     <row r="2" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -1871,7 +2000,7 @@
       <c r="L2" s="12"/>
       <c r="M2" s="18"/>
       <c r="Q2" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R2" s="24"/>
       <c r="S2" s="24"/>
@@ -1879,7 +2008,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -1899,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -1913,7 +2042,7 @@
       <c r="L4" s="12"/>
       <c r="M4" s="18"/>
       <c r="N4" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O4" s="11"/>
     </row>
@@ -1922,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -1939,10 +2068,10 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -1950,7 +2079,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -1967,10 +2096,10 @@
         <v>2</v>
       </c>
       <c r="O6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1978,7 +2107,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -1997,7 +2126,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -2011,13 +2140,13 @@
       <c r="L8" s="12"/>
       <c r="M8" s="18"/>
       <c r="N8" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O8" s="11"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -2032,7 +2161,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="18"/>
       <c r="O9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -2040,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -2059,7 +2188,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -2073,13 +2202,13 @@
       <c r="L11" s="12"/>
       <c r="M11" s="18"/>
       <c r="N11" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -2099,7 +2228,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -2118,7 +2247,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -2132,7 +2261,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="18"/>
       <c r="Q14" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
@@ -2143,7 +2272,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -2172,19 +2301,19 @@
       <c r="L16" s="12"/>
       <c r="M16" s="18"/>
       <c r="N16" t="s">
+        <v>92</v>
+      </c>
+      <c r="R16" t="s">
         <v>94</v>
-      </c>
-      <c r="R16" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -2197,12 +2326,12 @@
       <c r="L17" s="12"/>
       <c r="M17" s="18"/>
       <c r="R17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -2217,15 +2346,15 @@
       <c r="L18" s="12"/>
       <c r="M18" s="18"/>
       <c r="N18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -2240,7 +2369,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="18"/>
       <c r="R19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -2248,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -2262,7 +2391,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="18"/>
       <c r="R20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -2270,7 +2399,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -2289,7 +2418,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -2308,7 +2437,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -2327,7 +2456,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -2343,7 +2472,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -2363,7 +2492,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -2382,7 +2511,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -2401,7 +2530,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -2417,7 +2546,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -2437,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
@@ -2456,7 +2585,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -2510,7 +2639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2185E8-7F78-4A7E-B614-1886F07EB29C}">
   <dimension ref="A2:P94"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2699,222 +2828,222 @@
     </row>
     <row r="54" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A54" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B54" s="1"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C58" s="1"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F60" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D62" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D63" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D64" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D65" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
+        <v>118</v>
+      </c>
+      <c r="D67" t="s">
         <v>120</v>
-      </c>
-      <c r="D67" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D69" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A71" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B71" s="1"/>
       <c r="D71" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G78" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E80" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A84" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B84" s="27"/>
       <c r="D84" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B89" s="1"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D90" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D91" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B94" s="1"/>
     </row>
@@ -2995,10 +3124,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58449254-F20A-40EB-816D-1CE919B5BD7B}">
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="K93" sqref="K93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3009,123 +3138,123 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -3150,309 +3279,418 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E28" s="29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F32" s="30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E35" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="F35" s="30" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E35" s="29" t="s">
+      <c r="G35" t="s">
         <v>182</v>
       </c>
-      <c r="F35" s="30" t="s">
+    </row>
+    <row r="36" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
         <v>183</v>
       </c>
-      <c r="G35" t="s">
+    </row>
+    <row r="38" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
         <v>50</v>
       </c>
-      <c r="L35" t="s">
+    </row>
+    <row r="39" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E42" s="29" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="G36" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="G37" t="s">
+      <c r="G42" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="G38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="G39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="G40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E42" s="29" t="s">
+    <row r="43" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
         <v>186</v>
       </c>
-      <c r="G42" t="s">
+    </row>
+    <row r="44" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="G43" t="s">
+    <row r="45" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="G44" t="s">
+    <row r="46" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F46" s="30" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="G45" t="s">
+      <c r="G46" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="F46" s="30" t="s">
+    <row r="47" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
         <v>191</v>
       </c>
-      <c r="G46" t="s">
+    </row>
+    <row r="48" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="G47" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="G48" t="s">
-        <v>194</v>
-      </c>
       <c r="I48" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G49" s="31" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I49" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="5:9" x14ac:dyDescent="0.25">
       <c r="I50" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G51" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="I51" t="s">
         <v>205</v>
-      </c>
-      <c r="I51" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="52" spans="5:9" x14ac:dyDescent="0.25">
       <c r="I52" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G53" s="31" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I53" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="5:9" x14ac:dyDescent="0.25">
       <c r="I54" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="5:9" x14ac:dyDescent="0.25">
       <c r="I55" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" spans="5:9" x14ac:dyDescent="0.25">
       <c r="I56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F57" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="58" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G58" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F59" s="30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G59" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E61" s="29" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G61" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G62" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F63" s="30" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G63" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G64" s="31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I64" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G66" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I66" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67" spans="7:12" x14ac:dyDescent="0.25">
       <c r="I67" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="68" spans="7:12" x14ac:dyDescent="0.25">
       <c r="I68" t="s">
+        <v>222</v>
+      </c>
+      <c r="L68" t="s">
         <v>224</v>
-      </c>
-      <c r="L68" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="69" spans="7:12" x14ac:dyDescent="0.25">
       <c r="L69" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70" spans="7:12" x14ac:dyDescent="0.25">
       <c r="I70" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L70" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="71" spans="7:12" x14ac:dyDescent="0.25">
       <c r="L71" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="72" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G72" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I72" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="73" spans="7:12" x14ac:dyDescent="0.25">
       <c r="I73" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="74" spans="7:12" x14ac:dyDescent="0.25">
       <c r="I74" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L74" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="7:12" x14ac:dyDescent="0.25">
       <c r="L75" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76" spans="7:12" x14ac:dyDescent="0.25">
       <c r="I76" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L76" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" spans="7:12" x14ac:dyDescent="0.25">
       <c r="I77" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L77" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G78" s="31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I78" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L78" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="79" spans="7:12" x14ac:dyDescent="0.25">
       <c r="L79" t="s">
-        <v>241</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="82" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E82" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="F82" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="83" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F83" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="84" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F84" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="85" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F85" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="86" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F86" t="s">
+        <v>267</v>
+      </c>
+      <c r="H86" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="J86" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="87" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F87" t="s">
+        <v>271</v>
+      </c>
+      <c r="J87" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="88" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="J88" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="89" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="J89" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="90" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="J90" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="91" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="J91" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="97" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H97" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="98" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H98" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="99" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H99" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="100" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H100" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="101" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H101" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="102" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H102" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="103" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H103" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="104" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H104" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="105" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H105" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="106" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F106" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -3462,22 +3700,307 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F0FBEE-5633-4D6E-B6E4-7A2A92C8C983}">
-  <dimension ref="A10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EBB855-2665-4FC7-B0F7-F614BC4905D7}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A272810-FAA8-40BC-A59C-D91553439282}">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+    </row>
+    <row r="2" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" s="32"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App\tiktok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ReactJs\tiktok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBFD467-9C45-4D60-BAF2-1F57A99350A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4D738E-9B79-4792-ACDD-420052E582E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{F52B70D0-E6FF-4AE3-AC02-831A36674E1F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="334">
   <si>
     <t>Enhance oject literial</t>
   </si>
@@ -859,6 +859,180 @@
   </si>
   <si>
     <t>component sẽ được render lại khi setState gọi</t>
+  </si>
+  <si>
+    <t>HTTP request là gì</t>
+  </si>
+  <si>
+    <t>Là thông tin được gửi từ client lên server , để yêu cầu server tìm hoặc xử lý 1 số thông tin mà client muốn</t>
+  </si>
+  <si>
+    <t>Nó có thể là 1 file textx dưới dạng XML hoặc Json</t>
+  </si>
+  <si>
+    <t>Các phương thức của Nó</t>
+  </si>
+  <si>
+    <t>là pt được client gửi data lên server thông qua đường dẫn URL  nằm trên thanh địa chỉ browser -&gt; server sẽ nhận và phân tích trả về kết quả cho Client</t>
+  </si>
+  <si>
+    <t>là pt phổ biến  không cần có request body</t>
+  </si>
+  <si>
+    <t>Các đặc điểm của pt Get:</t>
+  </si>
+  <si>
+    <t>giới hạn độ dài các kí tự là 255 kí t]</t>
+  </si>
+  <si>
+    <t>Chỉ hỗ trợ kiểu dl string</t>
+  </si>
+  <si>
+    <t>Có thể lưu vào cache</t>
+  </si>
+  <si>
+    <t>Các tham số truyền vào được lưu trữ trong ls trình duyệt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có thể được bookmark </t>
+  </si>
+  <si>
+    <t>Là phương thức gửi dữ liệu đến server giúp mình thêm mới dữ liệu hoặc cập nhật dữ liệu vào DB đã có</t>
+  </si>
+  <si>
+    <t>Các đặc điểm của Post</t>
+  </si>
+  <si>
+    <t>Dữ liệu cần thêm hoặc cập nhật không được hiển thị trong URL trình duyệt</t>
+  </si>
+  <si>
+    <t>Dữ liệu không được lưu trong ls trình duyệt</t>
+  </si>
+  <si>
+    <t>Không có hạn chế về độ dài dữ liệu</t>
+  </si>
+  <si>
+    <t>Hỗ trợ nhiều kiểu dl : string , binary,intergers,…</t>
+  </si>
+  <si>
+    <t>Hoạt động như post nhưng chỉ được sử dụng để update dữ liệu đã có trong DB</t>
+  </si>
+  <si>
+    <t>Khi sử dụng put phải sửa toàn bộ dữ liệu của 1 đối tượng</t>
+  </si>
+  <si>
+    <t>Phương thức PATCH</t>
+  </si>
+  <si>
+    <t>Phương thức PUT</t>
+  </si>
+  <si>
+    <t>Phương thức POST</t>
+  </si>
+  <si>
+    <t>Phương thức GET</t>
+  </si>
+  <si>
+    <t>Tương tự như post và put nhưng Patch được sử dụng khi phải cập nhật 1 phần dữ liệu cùa đối tượng</t>
+  </si>
+  <si>
+    <t>Phương thức DELETE</t>
+  </si>
+  <si>
+    <t>Khi sử dụng pt Delete sẽ xóa các dữ liệu của server về tài nguyên thông qua URL, phương thức này không có body request</t>
+  </si>
+  <si>
+    <t>Phương thức HEAD</t>
+  </si>
+  <si>
+    <t>gần giống với Get nhưng không có response body</t>
+  </si>
+  <si>
+    <t>Head thường dùng để kiểm tra API có hoạt động không do không có response body nên thời gian phản hồi nhanh hơn so với Get</t>
+  </si>
+  <si>
+    <t>1 http request bao gồm</t>
+  </si>
+  <si>
+    <t>Request line</t>
+  </si>
+  <si>
+    <t>Body requesst(có thể có hoặc không )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ví dụ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tarrc.org/ </t>
+  </si>
+  <si>
+    <t>vietnamese/about/TARRC%20What%20is%20ASD.html</t>
+  </si>
+  <si>
+    <t>URL nguồn</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Request line là dòng đầu tiên trong HTTP request nó bao gồm 3 phần:</t>
+  </si>
+  <si>
+    <t>Phương thức HTTP được sử dụng</t>
+  </si>
+  <si>
+    <t>URI giúp xác định các tài nguyên mà client yêu cầu</t>
+  </si>
+  <si>
+    <t>Phiên bản của giao thức HTTP</t>
+  </si>
+  <si>
+    <t>Request header giúp client có thể gửi yêu cầu lên server, Mỗi yêu cầu sẽ kèm theo các thông số và các thông số đó gọi là header Parameters</t>
+  </si>
+  <si>
+    <t>Trình duyệt sẽ dựa vào các thông số header này để trả dữ liệu và hiển thị dữ liệu phù hợp</t>
+  </si>
+  <si>
+    <t>Các thông số thường xuyên gặp như :</t>
+  </si>
+  <si>
+    <t>User-Agent</t>
+  </si>
+  <si>
+    <t>Connection</t>
+  </si>
+  <si>
+    <t>Cache-control</t>
+  </si>
+  <si>
+    <t>Accept-Language</t>
+  </si>
+  <si>
+    <t>cho phép server xác định ứng dụng, hđh, nhà cung cấp và phiên bản</t>
+  </si>
+  <si>
+    <t>kiểm soát kết nối mạng . Cho  phép dừng hoặc tiếp tực kiết nối sau khi server thực hiện yc xong</t>
+  </si>
+  <si>
+    <t>chỉ định chính sách bộ  nhớ đệm của trình duyệt</t>
+  </si>
+  <si>
+    <t>cho biết tất cả ngôn ngữ mà client có thể hiểu được</t>
+  </si>
+  <si>
+    <t>Request body</t>
+  </si>
+  <si>
+    <t>Cho phép client gửi đến yêu cầu bổ sung cần server thực hiện như tạo mới hoặc cập nhật dữ liệu mà không thể truyền trên header parameters</t>
+  </si>
+  <si>
+    <t>Request body thường được sử dụng trong các phương thức POST , PUT ,PATCH .</t>
+  </si>
+  <si>
+    <t>Cấu trúc của http request</t>
+  </si>
+  <si>
+    <t>Fetch là gì</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1173,6 +1347,8 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3701,15 +3877,293 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EBB855-2665-4FC7-B0F7-F614BC4905D7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" t="s">
+        <v>299</v>
+      </c>
+      <c r="G4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>282</v>
+      </c>
+      <c r="J6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>298</v>
+      </c>
+      <c r="G12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>289</v>
+      </c>
+      <c r="J13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>297</v>
+      </c>
+      <c r="G18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>296</v>
+      </c>
+      <c r="G21" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>301</v>
+      </c>
+      <c r="G23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>303</v>
+      </c>
+      <c r="G25" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>309</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="H31" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>312</v>
+      </c>
+      <c r="H32" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F34" s="11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F38" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="40" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="41" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>321</v>
+      </c>
+      <c r="J41" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="42" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>322</v>
+      </c>
+      <c r="J42" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>323</v>
+      </c>
+      <c r="J43" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="44" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>324</v>
+      </c>
+      <c r="J44" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="45" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F45" s="11" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="46" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="47" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F31" r:id="rId1" xr:uid="{2BC75A22-B7A7-4336-8636-C68AC72292B1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ReactJs\tiktok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App\tiktok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4D738E-9B79-4792-ACDD-420052E582E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351CC01F-49EA-4556-A6C8-E1539F353321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{F52B70D0-E6FF-4AE3-AC02-831A36674E1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{F52B70D0-E6FF-4AE3-AC02-831A36674E1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="350">
   <si>
     <t>Enhance oject literial</t>
   </si>
@@ -1033,6 +1033,61 @@
   </si>
   <si>
     <t>Fetch là gì</t>
+  </si>
+  <si>
+    <t>fetch APi là một API đơn giản cho việc gửi và nhận request bằng JS.</t>
+  </si>
+  <si>
+    <t>với fetch thì việc thực hiện các yêu cầu web và phản hồi dễ dàng hơn XMLhttprequest cũ</t>
+  </si>
+  <si>
+    <t>Phương thức fetch nhận đầu vào là một url để truy vấn và trả về response</t>
+  </si>
+  <si>
+    <t>Tạo một request:
+fetch('link api')
+.then(function(response){
+                // thực hiện sử dụng response
+})
+.catch(function(error){
+                //thông báo error
+})</t>
+  </si>
+  <si>
+    <t>Các phương thức hữu ích với response trả về : response.ok , response.status , response.statustext</t>
+  </si>
+  <si>
+    <t>Khi tạo 1 request thì chúng ta cần thực hiện kiểm tra sự thành công của các response trả về bởi vì lỗi 404 vẫn được vẫn được trả về</t>
+  </si>
+  <si>
+    <t>chỉ có th lỗi mạng là k dk trả về</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cách đọc response trả về : </t>
+  </si>
+  <si>
+    <t>có phương thức Response.json()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trả về 1 promise dạng json </t>
+  </si>
+  <si>
+    <t>truyền vào link api</t>
+  </si>
+  <si>
+    <t>kiểm tra trang thái của response</t>
+  </si>
+  <si>
+    <t>đọc response</t>
+  </si>
+  <si>
+    <t>in ra response</t>
+  </si>
+  <si>
+    <t>log ra lỗi nếu có</t>
+  </si>
+  <si>
+    <t>Cách bước theo ảnh mình họa:</t>
   </si>
 </sst>
 </file>
@@ -1306,7 +1361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1349,6 +1404,7 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1685,6 +1741,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>183567</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>115122</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9B7459C-EDE7-C6D5-60AC-B4B121DF337A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7105650" y="10791825"/>
+          <a:ext cx="4012617" cy="3325047"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3302,7 +3407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58449254-F20A-40EB-816D-1CE919B5BD7B}">
   <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
       <selection activeCell="K93" sqref="K93"/>
     </sheetView>
   </sheetViews>
@@ -3877,10 +3982,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EBB855-2665-4FC7-B0F7-F614BC4905D7}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4151,12 +4256,103 @@
         <v>331</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="36" t="s">
         <v>333</v>
       </c>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
+      <c r="E49" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F52" s="38" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>341</v>
+      </c>
+      <c r="H56" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H57" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>4</v>
+      </c>
+      <c r="G63" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>5</v>
+      </c>
+      <c r="G64" t="s">
+        <v>348</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4164,6 +4360,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App\tiktok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ReactJs\tiktok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351CC01F-49EA-4556-A6C8-E1539F353321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB2CAD4-4138-4230-BEB9-D3EB7AA51302}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{F52B70D0-E6FF-4AE3-AC02-831A36674E1F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="380">
   <si>
     <t>Enhance oject literial</t>
   </si>
@@ -1088,6 +1088,96 @@
   </si>
   <si>
     <t>Cách bước theo ảnh mình họa:</t>
+  </si>
+  <si>
+    <t>Chỉ gọi hooks at the top level . Không gọi trong vòng lặp,điều kiện ,nested funtion</t>
+  </si>
+  <si>
+    <t>Redux</t>
+  </si>
+  <si>
+    <t>Là 1 thư viện JS dùng để quản lý và cập nhật state của ứng dụng</t>
+  </si>
+  <si>
+    <t>nó như 1 kho trung để quản lý tập trung các state</t>
+  </si>
+  <si>
+    <t>Là một parttern</t>
+  </si>
+  <si>
+    <t>Redux giúp quản lý global state - các components tại mọi nơi trong ứng dụng đều có thể truy xuất và cập nhật</t>
+  </si>
+  <si>
+    <t>Giúp việc truyền dữ liệu vào các cấp component con cháu khác nhau nhanh hơn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dễ dàng debug </t>
+  </si>
+  <si>
+    <t>Redux toolkit giải quyết các vấn đề với redux core đó là cấu hình redux phức tạp,cài đặt thủ công nhiều package, tránh viết lại các đoạn code lặp đi lặp lại</t>
+  </si>
+  <si>
+    <t>Kiến trúc của redux</t>
+  </si>
+  <si>
+    <t>Các thành phần của redux</t>
+  </si>
+  <si>
+    <t>Reducer</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Dispatch</t>
+  </si>
+  <si>
+    <t>Là 1 function nó nhận 2 tham số là state cũ có giá trị khởi tạo và 1 action</t>
+  </si>
+  <si>
+    <t>Các quy tắc với reducer: state mới luôn được tính toán dựa trên giá trị state cũ và action</t>
+  </si>
+  <si>
+    <t>Không được thay đổi trực tiếp giá trị state hiện tại mà phải tạo ra bản copy</t>
+  </si>
+  <si>
+    <t>Không được code bất đồng bộ trong reducer (ramdom, date.now, call API,..)</t>
+  </si>
+  <si>
+    <t>Là một object do chúng ta quy định</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type phải có , payload có hoặc không </t>
+  </si>
+  <si>
+    <t>reducer sẽ dựa vào type , nếu muốn state tính toán dựa trên payload truyền vào thì mới khai báo payload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">action creators là 1 hàm </t>
+  </si>
+  <si>
+    <t>Là một function  để update state trên store</t>
+  </si>
+  <si>
+    <t>sử dụng hàm dispatch(tham số là action truyền vào)</t>
+  </si>
+  <si>
+    <t>action truyền vào có thể là 1 action creators</t>
+  </si>
+  <si>
+    <t>Quy trình chạy của redux hoạt động:</t>
+  </si>
+  <si>
+    <t>khi 1 sự kiện gì đó dk xảy ra thì eventHandle sẽ được thực thi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gọi đến function dispatch(nhận vào function) sẽ chuyển action đó vào Store . </t>
+  </si>
+  <si>
+    <t>nó sẽ lấy state hiện tại và action vừa được dispatch  truyền vào reducer . Nó sẽ cập nhật trong reducer</t>
+  </si>
+  <si>
+    <t>&gt; UI nhận được thông tin update state sẽ render lại UI</t>
   </si>
 </sst>
 </file>
@@ -1745,6 +1835,99 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>512501</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>86398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50B9FD1F-2BC4-4011-8DBA-D3CB1A6C9E2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10887075" y="20545425"/>
+          <a:ext cx="2731826" cy="2229523"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>471731</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>57287</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{544A63F2-452B-4E8F-9B35-9BC01E9908C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8667751" y="24260174"/>
+          <a:ext cx="1862380" cy="771663"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>55</xdr:row>
@@ -3405,10 +3588,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58449254-F20A-40EB-816D-1CE919B5BD7B}">
-  <dimension ref="A1:L106"/>
+  <dimension ref="A1:O139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="K93" sqref="K93"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="I123" sqref="I123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3887,96 +4070,232 @@
     </row>
     <row r="86" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F86" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="88" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F88" t="s">
         <v>267</v>
       </c>
-      <c r="H86" s="31" t="s">
+      <c r="H88" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="J86" t="s">
+      <c r="J88" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="87" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="F87" t="s">
+    <row r="89" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F89" t="s">
         <v>271</v>
       </c>
-      <c r="J87" t="s">
+      <c r="J89" t="s">
         <v>270</v>
-      </c>
-    </row>
-    <row r="88" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="J88" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="89" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="J89" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="90" spans="5:10" x14ac:dyDescent="0.25">
       <c r="J90" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="91" spans="5:10" x14ac:dyDescent="0.25">
       <c r="J91" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="92" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="J92" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="93" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="J93" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H97" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H98" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="99" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H99" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="100" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H100" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="101" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H101" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="102" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H102" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="103" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H103" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="104" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H104" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="105" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H105" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="106" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H106" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="107" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H107" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F106" t="s">
+    <row r="108" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F108" t="s">
         <v>264</v>
+      </c>
+    </row>
+    <row r="113" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E113" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="F113" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="114" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F114" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="115" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F115" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="117" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F117" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="118" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F118" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="119" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F119" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="121" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F121" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="122" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F122" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="124" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F124" t="s">
+        <v>360</v>
+      </c>
+      <c r="G124" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="H124" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="125" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="H125" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="126" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="J126" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="127" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="J127" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="128" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G128" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="H128" t="s">
+        <v>368</v>
+      </c>
+      <c r="O128" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="129" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="H129" t="s">
+        <v>371</v>
+      </c>
+      <c r="O129" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="133" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G133" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="H133" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="134" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="H134" t="s">
+        <v>373</v>
+      </c>
+      <c r="M134" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="136" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G136" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="H136" s="31"/>
+      <c r="I136" s="31"/>
+      <c r="J136" s="31"/>
+      <c r="K136" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="137" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K137" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="138" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K138" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="139" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K139" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ReactJs\tiktok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB2CAD4-4138-4230-BEB9-D3EB7AA51302}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03D8E2D-EC2D-494D-8849-8084379DC72C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{F52B70D0-E6FF-4AE3-AC02-831A36674E1F}"/>
   </bookViews>
@@ -3590,8 +3590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58449254-F20A-40EB-816D-1CE919B5BD7B}">
   <dimension ref="A1:O139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="I123" sqref="I123"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="K91" sqref="K91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ReactJs\tiktok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03D8E2D-EC2D-494D-8849-8084379DC72C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4D3EF3-9181-4D97-B420-3D03782D57B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{F52B70D0-E6FF-4AE3-AC02-831A36674E1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{F52B70D0-E6FF-4AE3-AC02-831A36674E1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="396">
   <si>
     <t>Enhance oject literial</t>
   </si>
@@ -1178,6 +1178,55 @@
   </si>
   <si>
     <t>&gt; UI nhận được thông tin update state sẽ render lại UI</t>
+  </si>
+  <si>
+    <t>Axios</t>
+  </si>
+  <si>
+    <t>Là một thư viện HTTP Client dựa trên Promise. Nó cùng cấp 1 API cho việc xử lý XHR</t>
+  </si>
+  <si>
+    <t>Dành cho node.js và trình duyệt</t>
+  </si>
+  <si>
+    <t>Nó dùng để tạo request từ trình duyệt bằng XMLHttpRequest</t>
+  </si>
+  <si>
+    <t>Tạo request từ node,js bằng http</t>
+  </si>
+  <si>
+    <t>Hỗ trợ promise API</t>
+  </si>
+  <si>
+    <t>Đón chắn rq and res</t>
+  </si>
+  <si>
+    <t>Đổi dữ liệu req và res</t>
+  </si>
+  <si>
+    <t>Cancel req</t>
+  </si>
+  <si>
+    <t>Auto convert cho data Json</t>
+  </si>
+  <si>
+    <t>Hỗ trợ phía client bảo vệ chống lại XSRF</t>
+  </si>
+  <si>
+    <t>Là gì</t>
+  </si>
+  <si>
+    <t>Dùng làm
+ gì</t>
+  </si>
+  <si>
+    <t>Cách dùng</t>
+  </si>
+  <si>
+    <t>Thành phần</t>
+  </si>
+  <si>
+    <t>cài đặt bằng lệnh npm install axios</t>
   </si>
 </sst>
 </file>
@@ -1451,7 +1500,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1495,6 +1544,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3590,7 +3642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58449254-F20A-40EB-816D-1CE919B5BD7B}">
   <dimension ref="A1:O139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+    <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="K91" sqref="K91"/>
     </sheetView>
   </sheetViews>
@@ -4301,10 +4353,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EBB855-2665-4FC7-B0F7-F614BC4905D7}">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4671,6 +4723,80 @@
       </c>
       <c r="G64" t="s">
         <v>348</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A76" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="E76" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D79" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="E79" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D88" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="E88" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D90" s="10" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ReactJs\tiktok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4D3EF3-9181-4D97-B420-3D03782D57B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645FC5F0-923F-4265-A959-569E7128A4AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{F52B70D0-E6FF-4AE3-AC02-831A36674E1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{F52B70D0-E6FF-4AE3-AC02-831A36674E1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="398">
   <si>
     <t>Enhance oject literial</t>
   </si>
@@ -1227,6 +1227,12 @@
   </si>
   <si>
     <t>cài đặt bằng lệnh npm install axios</t>
+  </si>
+  <si>
+    <t>Props type</t>
+  </si>
+  <si>
+    <t>Dung da validate du lieu</t>
   </si>
 </sst>
 </file>
@@ -3642,7 +3648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58449254-F20A-40EB-816D-1CE919B5BD7B}">
   <dimension ref="A1:O139"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
+    <sheetView topLeftCell="A86" workbookViewId="0">
       <selection activeCell="K91" sqref="K91"/>
     </sheetView>
   </sheetViews>
@@ -4353,10 +4359,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EBB855-2665-4FC7-B0F7-F614BC4905D7}">
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4756,37 +4762,37 @@
         <v>384</v>
       </c>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E82" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E86" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D88" s="10" t="s">
         <v>393</v>
       </c>
@@ -4794,9 +4800,17 @@
         <v>395</v>
       </c>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D90" s="10" t="s">
         <v>394</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>396</v>
+      </c>
+      <c r="D93" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>
